--- a/data/raw_data/ManyPrimates_mp1_datasheet_Strasbourg.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_Strasbourg.xlsx
@@ -341,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -357,6 +357,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -65441,11 +65444,11 @@
       <c r="I1040" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1040" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1040" s="3">
-        <v>1.0</v>
+      <c r="J1040" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="K1040" s="6">
+        <v>10.0</v>
       </c>
       <c r="L1040" s="3">
         <v>28.0</v>
@@ -65503,11 +65506,11 @@
       <c r="I1041" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1041" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1041" s="3">
-        <v>1.0</v>
+      <c r="J1041" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K1041" s="6">
+        <v>10.0</v>
       </c>
       <c r="L1041" s="3">
         <v>29.0</v>
@@ -65565,11 +65568,11 @@
       <c r="I1042" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1042" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1042" s="3">
-        <v>1.0</v>
+      <c r="J1042" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K1042" s="6">
+        <v>10.0</v>
       </c>
       <c r="L1042" s="3">
         <v>30.0</v>
@@ -65627,11 +65630,11 @@
       <c r="I1043" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1043" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1043" s="3">
-        <v>2.0</v>
+      <c r="J1043" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K1043" s="6">
+        <v>11.0</v>
       </c>
       <c r="L1043" s="3">
         <v>31.0</v>
@@ -65689,11 +65692,11 @@
       <c r="I1044" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1044" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1044" s="3">
-        <v>2.0</v>
+      <c r="J1044" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K1044" s="6">
+        <v>11.0</v>
       </c>
       <c r="L1044" s="3">
         <v>32.0</v>
@@ -65751,11 +65754,11 @@
       <c r="I1045" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1045" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1045" s="3">
-        <v>2.0</v>
+      <c r="J1045" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K1045" s="6">
+        <v>11.0</v>
       </c>
       <c r="L1045" s="3">
         <v>33.0</v>
@@ -65813,11 +65816,11 @@
       <c r="I1046" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1046" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1046" s="3">
-        <v>3.0</v>
+      <c r="J1046" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K1046" s="6">
+        <v>12.0</v>
       </c>
       <c r="L1046" s="3">
         <v>34.0</v>
@@ -65875,11 +65878,11 @@
       <c r="I1047" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1047" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1047" s="3">
-        <v>3.0</v>
+      <c r="J1047" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K1047" s="6">
+        <v>12.0</v>
       </c>
       <c r="L1047" s="3">
         <v>35.0</v>
@@ -65937,11 +65940,11 @@
       <c r="I1048" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1048" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="K1048" s="3">
-        <v>3.0</v>
+      <c r="J1048" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K1048" s="6">
+        <v>12.0</v>
       </c>
       <c r="L1048" s="3">
         <v>36.0</v>
